--- a/Images_and_Data/Embedded_Qs/3_7_2D.xlsx
+++ b/Images_and_Data/Embedded_Qs/3_7_2D.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\My Drive\Colab Notebooks\ModSimPy_Directory\Images_and_Data\Embedded_Qs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{228AE3F2-DBF0-42A4-878B-BF756F7F9D3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E325C2E7-CDC3-4F97-8C7C-2658CA2ABFC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10965" yWindow="1200" windowWidth="16665" windowHeight="13995" xr2:uid="{30976CD0-087A-4B7C-BA2F-9E2951B19CA4}"/>
+    <workbookView xWindow="10965" yWindow="1200" windowWidth="16665" windowHeight="13995" activeTab="1" xr2:uid="{30976CD0-087A-4B7C-BA2F-9E2951B19CA4}"/>
   </bookViews>
   <sheets>
     <sheet name="0_" sheetId="6" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="61">
   <si>
     <t>What is the color of the car?</t>
   </si>
@@ -199,6 +199,33 @@
   </si>
   <si>
     <t>Yessirree!  Use whichever version makes the math easier (this is why we use components when in a Cartesian x/y axis system).</t>
+  </si>
+  <si>
+    <t>Why do you think the coefficient of drag changes with velocity?</t>
+  </si>
+  <si>
+    <t>Because the shape of the baseball changes very slightly, and this changes C_d</t>
+  </si>
+  <si>
+    <t>Because the shape of the baseball changes very slightly, and this changes the cross-sectional area of the ball</t>
+  </si>
+  <si>
+    <t>Because drag depends on the square of velocity, and so as velocity increases, the coefficient has to take this into account</t>
+  </si>
+  <si>
+    <t>This is absolute nonsense!</t>
+  </si>
+  <si>
+    <t>This answer is rubbish!</t>
+  </si>
+  <si>
+    <t>This makes no sense whatsoever!</t>
+  </si>
+  <si>
+    <t>Because the drag equation is just a model that tries to simplify a complex physical system, and the model has limitations</t>
+  </si>
+  <si>
+    <t>Yahoo, Bob!  It's a model!  So many of those equations that you think are *Truth* and *Law* are just models we use to help us understand a complex world!</t>
   </si>
 </sst>
 </file>
@@ -558,8 +585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{934C48AF-819E-4283-8F6D-9ECFCE33CE5A}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -630,10 +657,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57791D97-FA66-4511-9C06-60107C3234C0}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -644,7 +671,63 @@
     <col min="4" max="4" width="31.28515625" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Images_and_Data/Embedded_Qs/3_7_2D.xlsx
+++ b/Images_and_Data/Embedded_Qs/3_7_2D.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\My Drive\Colab Notebooks\ModSimPy_Directory\Images_and_Data\Embedded_Qs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E325C2E7-CDC3-4F97-8C7C-2658CA2ABFC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F31CB336-0730-4261-93B4-B091A6C8D263}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10965" yWindow="1200" windowWidth="16665" windowHeight="13995" activeTab="1" xr2:uid="{30976CD0-087A-4B7C-BA2F-9E2951B19CA4}"/>
+    <workbookView xWindow="10965" yWindow="1200" windowWidth="16665" windowHeight="13995" activeTab="2" xr2:uid="{30976CD0-087A-4B7C-BA2F-9E2951B19CA4}"/>
   </bookViews>
   <sheets>
     <sheet name="0_" sheetId="6" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="72">
   <si>
     <t>What is the color of the car?</t>
   </si>
@@ -226,6 +226,39 @@
   </si>
   <si>
     <t>Yahoo, Bob!  It's a model!  So many of those equations that you think are *Truth* and *Law* are just models we use to help us understand a complex world!</t>
+  </si>
+  <si>
+    <t>There's a lot going on in 'drag_force'.  Match up the line in the code with what that line does.</t>
+  </si>
+  <si>
+    <t>line 5 ("vel_mag = …)</t>
+  </si>
+  <si>
+    <t>line 9 ("dir = pd.Series…")</t>
+  </si>
+  <si>
+    <t>line 7 ("dir = unit…")</t>
+  </si>
+  <si>
+    <t>line 16 ("f_drag = …")</t>
+  </si>
+  <si>
+    <t>Multiplying the magnitude of the drag force with the unit vector of velocity to get the drag force vector</t>
+  </si>
+  <si>
+    <t>Finding the unit vector of the velocity</t>
+  </si>
+  <si>
+    <t>Setting the drag to zero if there is no velocity</t>
+  </si>
+  <si>
+    <t>Finding the magnitude of the velocity vector</t>
+  </si>
+  <si>
+    <t>Calculating the magnitude of the drag force</t>
+  </si>
+  <si>
+    <t>Checking to see if there is a nonzero velocity</t>
   </si>
 </sst>
 </file>
@@ -659,7 +692,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57791D97-FA66-4511-9C06-60107C3234C0}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -734,10 +767,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2CD8C2B-D1A8-4D3F-8035-9BE809D05A5A}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -748,7 +781,81 @@
     <col min="4" max="4" width="31.28515625" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B6" s="2"/>
+      <c r="C6" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B7" s="2"/>
+      <c r="C7" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1010,7 +1117,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection sqref="A1:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Images_and_Data/Embedded_Qs/3_7_2D.xlsx
+++ b/Images_and_Data/Embedded_Qs/3_7_2D.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\My Drive\Colab Notebooks\ModSimPy_Directory\Images_and_Data\Embedded_Qs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F31CB336-0730-4261-93B4-B091A6C8D263}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0658059F-180E-4FA8-9E90-442BA3EDA87B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10965" yWindow="1200" windowWidth="16665" windowHeight="13995" activeTab="2" xr2:uid="{30976CD0-087A-4B7C-BA2F-9E2951B19CA4}"/>
+    <workbookView xWindow="10965" yWindow="1200" windowWidth="16665" windowHeight="13995" activeTab="3" xr2:uid="{30976CD0-087A-4B7C-BA2F-9E2951B19CA4}"/>
   </bookViews>
   <sheets>
     <sheet name="0_" sheetId="6" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="83">
   <si>
     <t>What is the color of the car?</t>
   </si>
@@ -259,6 +259,39 @@
   </si>
   <si>
     <t>Checking to see if there is a nonzero velocity</t>
+  </si>
+  <si>
+    <t>We found the optimal launch angle in two ways: by manually sweeping through the "angle" parameter, and by using the SciPy function "minimize_scalare".   Choose which of those options has the advantage in each of the following categories.</t>
+  </si>
+  <si>
+    <t>Manual sweeping is better for this</t>
+  </si>
+  <si>
+    <t>A "black box" library function like "minimize_scalar" is better for this</t>
+  </si>
+  <si>
+    <t>Accuracy of the answer</t>
+  </si>
+  <si>
+    <t>Number of lines of code necessary to implement the method</t>
+  </si>
+  <si>
+    <t>Speed of calculation</t>
+  </si>
+  <si>
+    <t>Ease of fixing errors that arise</t>
+  </si>
+  <si>
+    <t>Ease of understanding exactly what is happening in the code</t>
+  </si>
+  <si>
+    <t>A function like "minimize_scalar" is going to be optimized for speed by some really smart folks</t>
+  </si>
+  <si>
+    <t>"Minimize_scalar" is super efficient in terms of lines of code</t>
+  </si>
+  <si>
+    <t>This might be a toss-up, but it can be really frustrating to figure out an unexpected error with a black box function</t>
   </si>
 </sst>
 </file>
@@ -769,8 +802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2CD8C2B-D1A8-4D3F-8035-9BE809D05A5A}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -862,10 +895,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1E1BC2E-64C7-4733-84BB-7AC79569B2D9}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -876,7 +909,77 @@
     <col min="4" max="4" width="31.28515625" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="165" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="2"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1117,7 +1220,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D7"/>
+      <selection sqref="A1:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
